--- a/assets/datasets/2.1.xlsx
+++ b/assets/datasets/2.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopopoletto/Google Drive/Sintesi C3—HATE SPEECH/Phase 02/z-SITO/Dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicola\Google Drive\Sintesi C3—HATE SPEECH\Phase 02\z-SITO\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD66287-075C-0E49-AA73-6B98ED5B28EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6826F6B3-E071-4354-B473-B3778C2CC1A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{FBAA7637-5CB4-3547-B1FC-504454ADBB7E}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -396,7 +397,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-410]mmmm\-yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -828,10 +829,11 @@
   <dimension ref="A1:HM39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -840,7 +842,7 @@
     <col min="5" max="5" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:221" s="16" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:221" s="16" customFormat="1" ht="35" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1505,7 +1507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:221">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2171,7 +2173,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="3" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:221">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2829,7 +2831,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="4" spans="1:221" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:221" ht="17.5">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -3487,7 +3489,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:221">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -4153,7 +4155,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:221">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -4815,7 +4817,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:221">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -5421,7 +5423,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:221">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -6077,7 +6079,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:221">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -6735,7 +6737,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:221">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -7295,7 +7297,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:221">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -7953,7 +7955,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:221">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -8569,7 +8571,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:221">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -9175,7 +9177,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:221">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -9833,7 +9835,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:221">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -10491,7 +10493,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:221">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -11115,7 +11117,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:221">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -11781,7 +11783,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:221">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
@@ -12387,7 +12389,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:221">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -13045,7 +13047,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:221">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -13639,7 +13641,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:221">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -13983,7 +13985,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:221">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -14613,7 +14615,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:221">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
@@ -15215,7 +15217,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:221">
       <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
@@ -15755,7 +15757,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:221">
       <c r="A25" s="2" t="s">
         <v>74</v>
       </c>
@@ -16349,7 +16351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:221">
       <c r="A26" s="2" t="s">
         <v>77</v>
       </c>
@@ -16945,7 +16947,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:221">
       <c r="A27" s="2" t="s">
         <v>80</v>
       </c>
@@ -17541,7 +17543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:221">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
@@ -18139,7 +18141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:221">
       <c r="A29" s="2" t="s">
         <v>85</v>
       </c>
@@ -18755,7 +18757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:221">
       <c r="A30" s="2" t="s">
         <v>88</v>
       </c>
@@ -19375,7 +19377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:221">
       <c r="A31" s="2" t="s">
         <v>91</v>
       </c>
@@ -19935,7 +19937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:221">
       <c r="A32" s="2" t="s">
         <v>94</v>
       </c>
@@ -20555,7 +20557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:221">
       <c r="A33" s="2" t="s">
         <v>97</v>
       </c>
@@ -21221,7 +21223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:221">
       <c r="A34" s="2" t="s">
         <v>100</v>
       </c>
@@ -21879,7 +21881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:221">
       <c r="A35" s="2" t="s">
         <v>103</v>
       </c>
@@ -22221,7 +22223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:221">
       <c r="A36" s="2" t="s">
         <v>106</v>
       </c>
@@ -22859,7 +22861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:221">
       <c r="A37" s="2" t="s">
         <v>85</v>
       </c>
@@ -23455,7 +23457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:221">
       <c r="A38" s="2" t="s">
         <v>111</v>
       </c>
@@ -24037,7 +24039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:221" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:221">
       <c r="A39" s="2" t="s">
         <v>114</v>
       </c>
